--- a/TestResults/V175_Trace_seg2.xlsx
+++ b/TestResults/V175_Trace_seg2.xlsx
@@ -4,12 +4,12 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="600" yWindow="735" windowWidth="24435" windowHeight="10425"/>
+    <workbookView xWindow="600" yWindow="735" windowWidth="24240" windowHeight="10425"/>
   </bookViews>
   <sheets>
     <sheet name="V175_Trace_seg2" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
@@ -466,7 +466,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="42">
+  <cellStyleXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
@@ -509,11 +509,13 @@
     <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="42" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="42">
+  <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
     <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
@@ -553,6 +555,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
     <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Percent" xfId="42" builtinId="5"/>
     <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
@@ -854,699 +857,940 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C3:H63"/>
+  <dimension ref="C3:I63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="H24" sqref="H24"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E23" sqref="E23:F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="7" max="7" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>0</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>1</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C4">
         <v>1</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="1">
+        <f>C4/C$63</f>
+        <v>1.6666666666666666E-2</v>
+      </c>
+      <c r="E4">
         <v>20340</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>4560</v>
       </c>
     </row>
-    <row r="5" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C5">
         <v>2</v>
       </c>
-      <c r="D5">
-        <v>24900</v>
+      <c r="D5" s="1">
+        <f t="shared" ref="D5:D63" si="0">C5/C$63</f>
+        <v>3.3333333333333333E-2</v>
       </c>
       <c r="E5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="3:5" x14ac:dyDescent="0.25">
+        <v>24900</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C6">
         <v>3</v>
       </c>
-      <c r="D6">
-        <v>24900</v>
+      <c r="D6" s="1">
+        <f t="shared" si="0"/>
+        <v>0.05</v>
       </c>
       <c r="E6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="3:5" x14ac:dyDescent="0.25">
+        <v>24900</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C7">
         <v>4</v>
       </c>
-      <c r="D7">
-        <v>24900</v>
+      <c r="D7" s="1">
+        <f t="shared" si="0"/>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="E7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="3:5" x14ac:dyDescent="0.25">
+        <v>24900</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C8">
         <v>5</v>
       </c>
-      <c r="D8">
-        <v>24900</v>
+      <c r="D8" s="1">
+        <f t="shared" si="0"/>
+        <v>8.3333333333333329E-2</v>
       </c>
       <c r="E8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="3:5" x14ac:dyDescent="0.25">
+        <v>24900</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C9">
         <v>6</v>
       </c>
-      <c r="D9">
-        <v>24900</v>
+      <c r="D9" s="1">
+        <f t="shared" si="0"/>
+        <v>0.1</v>
       </c>
       <c r="E9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="3:5" x14ac:dyDescent="0.25">
+        <v>24900</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C10">
         <v>7</v>
       </c>
-      <c r="D10">
-        <v>24900</v>
+      <c r="D10" s="1">
+        <f t="shared" si="0"/>
+        <v>0.11666666666666667</v>
       </c>
       <c r="E10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="3:5" x14ac:dyDescent="0.25">
+        <v>24900</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C11">
         <v>8</v>
       </c>
-      <c r="D11">
-        <v>24900</v>
+      <c r="D11" s="1">
+        <f t="shared" si="0"/>
+        <v>0.13333333333333333</v>
       </c>
       <c r="E11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="3:5" x14ac:dyDescent="0.25">
+        <v>24900</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C12">
         <v>9</v>
       </c>
-      <c r="D12">
-        <v>24900</v>
+      <c r="D12" s="1">
+        <f t="shared" si="0"/>
+        <v>0.15</v>
       </c>
       <c r="E12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="3:5" x14ac:dyDescent="0.25">
+        <v>24900</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C13">
         <v>10</v>
       </c>
-      <c r="D13">
-        <v>24900</v>
+      <c r="D13" s="1">
+        <f t="shared" si="0"/>
+        <v>0.16666666666666666</v>
       </c>
       <c r="E13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="3:5" x14ac:dyDescent="0.25">
+        <v>24900</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C14">
         <v>11</v>
       </c>
-      <c r="D14">
-        <v>24900</v>
+      <c r="D14" s="1">
+        <f t="shared" si="0"/>
+        <v>0.18333333333333332</v>
       </c>
       <c r="E14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="3:5" x14ac:dyDescent="0.25">
+        <v>24900</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C15">
         <v>12</v>
       </c>
-      <c r="D15">
-        <v>24900</v>
+      <c r="D15" s="1">
+        <f t="shared" si="0"/>
+        <v>0.2</v>
       </c>
       <c r="E15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="3:5" x14ac:dyDescent="0.25">
+        <v>24900</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C16">
         <v>13</v>
       </c>
-      <c r="D16">
-        <v>24900</v>
+      <c r="D16" s="1">
+        <f t="shared" si="0"/>
+        <v>0.21666666666666667</v>
       </c>
       <c r="E16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="3:8" x14ac:dyDescent="0.25">
+        <v>24900</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C17">
         <v>14</v>
       </c>
-      <c r="D17">
-        <v>24900</v>
+      <c r="D17" s="1">
+        <f t="shared" si="0"/>
+        <v>0.23333333333333334</v>
       </c>
       <c r="E17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="3:8" x14ac:dyDescent="0.25">
+        <v>24900</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C18">
         <v>15</v>
       </c>
-      <c r="D18">
-        <v>24900</v>
+      <c r="D18" s="1">
+        <f t="shared" si="0"/>
+        <v>0.25</v>
       </c>
       <c r="E18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="3:8" x14ac:dyDescent="0.25">
+        <v>24900</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C19">
         <v>16</v>
       </c>
-      <c r="D19">
-        <v>24900</v>
+      <c r="D19" s="1">
+        <f t="shared" si="0"/>
+        <v>0.26666666666666666</v>
       </c>
       <c r="E19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="3:8" x14ac:dyDescent="0.25">
+        <v>24900</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C20">
         <v>17</v>
       </c>
-      <c r="D20">
-        <v>24900</v>
+      <c r="D20" s="1">
+        <f t="shared" si="0"/>
+        <v>0.28333333333333333</v>
       </c>
       <c r="E20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="3:8" x14ac:dyDescent="0.25">
+        <v>24900</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C21">
         <v>18</v>
       </c>
-      <c r="D21">
-        <v>24900</v>
+      <c r="D21" s="1">
+        <f t="shared" si="0"/>
+        <v>0.3</v>
       </c>
       <c r="E21">
-        <v>0</v>
-      </c>
-      <c r="G21" t="s">
+        <v>24900</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="H21" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C22">
         <v>19</v>
       </c>
-      <c r="D22">
-        <v>24900</v>
+      <c r="D22" s="1">
+        <f t="shared" si="0"/>
+        <v>0.31666666666666665</v>
       </c>
       <c r="E22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="3:8" x14ac:dyDescent="0.25">
+        <v>24900</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C23">
         <v>20</v>
       </c>
-      <c r="D23">
-        <v>24900</v>
+      <c r="D23" s="1">
+        <f t="shared" si="0"/>
+        <v>0.33333333333333331</v>
       </c>
       <c r="E23">
-        <v>0</v>
-      </c>
-      <c r="G23">
+        <v>24900</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="H23">
         <v>24899</v>
       </c>
-      <c r="H23">
-        <f>G23/(D23)</f>
+      <c r="I23">
+        <f>H23/(E23)</f>
         <v>0.99995983935742971</v>
       </c>
     </row>
-    <row r="24" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C24">
         <v>21</v>
       </c>
-      <c r="D24">
-        <v>24900</v>
+      <c r="D24" s="1">
+        <f t="shared" si="0"/>
+        <v>0.35</v>
       </c>
       <c r="E24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="3:8" x14ac:dyDescent="0.25">
+        <v>24900</v>
+      </c>
+      <c r="F24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C25">
         <v>22</v>
       </c>
-      <c r="D25">
-        <v>24900</v>
+      <c r="D25" s="1">
+        <f t="shared" si="0"/>
+        <v>0.36666666666666664</v>
       </c>
       <c r="E25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="3:8" x14ac:dyDescent="0.25">
+        <v>24900</v>
+      </c>
+      <c r="F25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C26">
         <v>23</v>
       </c>
-      <c r="D26">
-        <v>24900</v>
+      <c r="D26" s="1">
+        <f t="shared" si="0"/>
+        <v>0.38333333333333336</v>
       </c>
       <c r="E26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="3:8" x14ac:dyDescent="0.25">
+        <v>24900</v>
+      </c>
+      <c r="F26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C27">
         <v>24</v>
       </c>
-      <c r="D27">
-        <v>24900</v>
+      <c r="D27" s="1">
+        <f t="shared" si="0"/>
+        <v>0.4</v>
       </c>
       <c r="E27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="3:8" x14ac:dyDescent="0.25">
+        <v>24900</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C28">
         <v>25</v>
       </c>
-      <c r="D28">
-        <v>24900</v>
+      <c r="D28" s="1">
+        <f t="shared" si="0"/>
+        <v>0.41666666666666669</v>
       </c>
       <c r="E28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="3:8" x14ac:dyDescent="0.25">
+        <v>24900</v>
+      </c>
+      <c r="F28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C29">
         <v>26</v>
       </c>
-      <c r="D29">
-        <v>24900</v>
+      <c r="D29" s="1">
+        <f t="shared" si="0"/>
+        <v>0.43333333333333335</v>
       </c>
       <c r="E29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="3:8" x14ac:dyDescent="0.25">
+        <v>24900</v>
+      </c>
+      <c r="F29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C30">
         <v>27</v>
       </c>
-      <c r="D30">
-        <v>24900</v>
+      <c r="D30" s="1">
+        <f t="shared" si="0"/>
+        <v>0.45</v>
       </c>
       <c r="E30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="3:8" x14ac:dyDescent="0.25">
+        <v>24900</v>
+      </c>
+      <c r="F30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C31">
         <v>28</v>
       </c>
-      <c r="D31">
-        <v>24900</v>
+      <c r="D31" s="1">
+        <f t="shared" si="0"/>
+        <v>0.46666666666666667</v>
       </c>
       <c r="E31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="3:8" x14ac:dyDescent="0.25">
+        <v>24900</v>
+      </c>
+      <c r="F31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C32">
         <v>29</v>
       </c>
-      <c r="D32">
-        <v>24900</v>
+      <c r="D32" s="1">
+        <f t="shared" si="0"/>
+        <v>0.48333333333333334</v>
       </c>
       <c r="E32">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="3:5" x14ac:dyDescent="0.25">
+        <v>24900</v>
+      </c>
+      <c r="F32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C33">
         <v>30</v>
       </c>
-      <c r="D33">
-        <v>24900</v>
+      <c r="D33" s="1">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
       </c>
       <c r="E33">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="3:5" x14ac:dyDescent="0.25">
+        <v>24900</v>
+      </c>
+      <c r="F33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C34">
         <v>31</v>
       </c>
-      <c r="D34">
-        <v>24900</v>
+      <c r="D34" s="1">
+        <f t="shared" si="0"/>
+        <v>0.51666666666666672</v>
       </c>
       <c r="E34">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="3:5" x14ac:dyDescent="0.25">
+        <v>24900</v>
+      </c>
+      <c r="F34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C35">
         <v>32</v>
       </c>
-      <c r="D35">
-        <v>24900</v>
+      <c r="D35" s="1">
+        <f t="shared" si="0"/>
+        <v>0.53333333333333333</v>
       </c>
       <c r="E35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="3:5" x14ac:dyDescent="0.25">
+        <v>24900</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C36">
         <v>33</v>
       </c>
-      <c r="D36">
-        <v>24900</v>
+      <c r="D36" s="1">
+        <f t="shared" si="0"/>
+        <v>0.55000000000000004</v>
       </c>
       <c r="E36">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="3:5" x14ac:dyDescent="0.25">
+        <v>24900</v>
+      </c>
+      <c r="F36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C37">
         <v>34</v>
       </c>
-      <c r="D37">
-        <v>24900</v>
+      <c r="D37" s="1">
+        <f t="shared" si="0"/>
+        <v>0.56666666666666665</v>
       </c>
       <c r="E37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="3:5" x14ac:dyDescent="0.25">
+        <v>24900</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C38">
         <v>35</v>
       </c>
-      <c r="D38">
-        <v>24900</v>
+      <c r="D38" s="1">
+        <f t="shared" si="0"/>
+        <v>0.58333333333333337</v>
       </c>
       <c r="E38">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="3:5" x14ac:dyDescent="0.25">
+        <v>24900</v>
+      </c>
+      <c r="F38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C39">
         <v>36</v>
       </c>
-      <c r="D39">
-        <v>24900</v>
+      <c r="D39" s="1">
+        <f t="shared" si="0"/>
+        <v>0.6</v>
       </c>
       <c r="E39">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="3:5" x14ac:dyDescent="0.25">
+        <v>24900</v>
+      </c>
+      <c r="F39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C40">
         <v>37</v>
       </c>
-      <c r="D40">
-        <v>24900</v>
+      <c r="D40" s="1">
+        <f t="shared" si="0"/>
+        <v>0.6166666666666667</v>
       </c>
       <c r="E40">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="3:5" x14ac:dyDescent="0.25">
+        <v>24900</v>
+      </c>
+      <c r="F40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C41">
         <v>38</v>
       </c>
-      <c r="D41">
-        <v>24900</v>
+      <c r="D41" s="1">
+        <f t="shared" si="0"/>
+        <v>0.6333333333333333</v>
       </c>
       <c r="E41">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="3:5" x14ac:dyDescent="0.25">
+        <v>24900</v>
+      </c>
+      <c r="F41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C42">
         <v>39</v>
       </c>
-      <c r="D42">
-        <v>24900</v>
+      <c r="D42" s="1">
+        <f t="shared" si="0"/>
+        <v>0.65</v>
       </c>
       <c r="E42">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="3:5" x14ac:dyDescent="0.25">
+        <v>24900</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C43">
         <v>40</v>
       </c>
-      <c r="D43">
-        <v>24900</v>
+      <c r="D43" s="1">
+        <f t="shared" si="0"/>
+        <v>0.66666666666666663</v>
       </c>
       <c r="E43">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="3:5" x14ac:dyDescent="0.25">
+        <v>24900</v>
+      </c>
+      <c r="F43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C44">
         <v>41</v>
       </c>
-      <c r="D44">
-        <v>24900</v>
+      <c r="D44" s="1">
+        <f t="shared" si="0"/>
+        <v>0.68333333333333335</v>
       </c>
       <c r="E44">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="3:5" x14ac:dyDescent="0.25">
+        <v>24900</v>
+      </c>
+      <c r="F44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C45">
         <v>42</v>
       </c>
-      <c r="D45">
-        <v>24900</v>
+      <c r="D45" s="1">
+        <f t="shared" si="0"/>
+        <v>0.7</v>
       </c>
       <c r="E45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="3:5" x14ac:dyDescent="0.25">
+        <v>24900</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C46">
         <v>43</v>
       </c>
-      <c r="D46">
-        <v>24900</v>
+      <c r="D46" s="1">
+        <f t="shared" si="0"/>
+        <v>0.71666666666666667</v>
       </c>
       <c r="E46">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="3:5" x14ac:dyDescent="0.25">
+        <v>24900</v>
+      </c>
+      <c r="F46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C47">
         <v>44</v>
       </c>
-      <c r="D47">
-        <v>24900</v>
+      <c r="D47" s="1">
+        <f t="shared" si="0"/>
+        <v>0.73333333333333328</v>
       </c>
       <c r="E47">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="3:5" x14ac:dyDescent="0.25">
+        <v>24900</v>
+      </c>
+      <c r="F47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C48">
         <v>45</v>
       </c>
-      <c r="D48">
-        <v>24900</v>
+      <c r="D48" s="1">
+        <f t="shared" si="0"/>
+        <v>0.75</v>
       </c>
       <c r="E48">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="3:5" x14ac:dyDescent="0.25">
+        <v>24900</v>
+      </c>
+      <c r="F48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C49">
         <v>46</v>
       </c>
-      <c r="D49">
-        <v>24900</v>
+      <c r="D49" s="1">
+        <f t="shared" si="0"/>
+        <v>0.76666666666666672</v>
       </c>
       <c r="E49">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="3:5" x14ac:dyDescent="0.25">
+        <v>24900</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C50">
         <v>47</v>
       </c>
-      <c r="D50">
-        <v>24900</v>
+      <c r="D50" s="1">
+        <f t="shared" si="0"/>
+        <v>0.78333333333333333</v>
       </c>
       <c r="E50">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="3:5" x14ac:dyDescent="0.25">
+        <v>24900</v>
+      </c>
+      <c r="F50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C51">
         <v>48</v>
       </c>
-      <c r="D51">
-        <v>24900</v>
+      <c r="D51" s="1">
+        <f t="shared" si="0"/>
+        <v>0.8</v>
       </c>
       <c r="E51">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="3:5" x14ac:dyDescent="0.25">
+        <v>24900</v>
+      </c>
+      <c r="F51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C52">
         <v>49</v>
       </c>
-      <c r="D52">
-        <v>24900</v>
+      <c r="D52" s="1">
+        <f t="shared" si="0"/>
+        <v>0.81666666666666665</v>
       </c>
       <c r="E52">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="3:5" x14ac:dyDescent="0.25">
+        <v>24900</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C53">
         <v>50</v>
       </c>
-      <c r="D53">
-        <v>24900</v>
+      <c r="D53" s="1">
+        <f t="shared" si="0"/>
+        <v>0.83333333333333337</v>
       </c>
       <c r="E53">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="3:5" x14ac:dyDescent="0.25">
+        <v>24900</v>
+      </c>
+      <c r="F53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C54">
         <v>51</v>
       </c>
-      <c r="D54">
-        <v>24900</v>
+      <c r="D54" s="1">
+        <f t="shared" si="0"/>
+        <v>0.85</v>
       </c>
       <c r="E54">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="3:5" x14ac:dyDescent="0.25">
+        <v>24900</v>
+      </c>
+      <c r="F54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C55">
         <v>52</v>
       </c>
-      <c r="D55">
-        <v>24900</v>
+      <c r="D55" s="1">
+        <f t="shared" si="0"/>
+        <v>0.8666666666666667</v>
       </c>
       <c r="E55">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="3:5" x14ac:dyDescent="0.25">
+        <v>24900</v>
+      </c>
+      <c r="F55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C56">
         <v>53</v>
       </c>
-      <c r="D56">
-        <v>24900</v>
+      <c r="D56" s="1">
+        <f t="shared" si="0"/>
+        <v>0.8833333333333333</v>
       </c>
       <c r="E56">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="3:5" x14ac:dyDescent="0.25">
+        <v>24900</v>
+      </c>
+      <c r="F56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C57">
         <v>54</v>
       </c>
-      <c r="D57">
-        <v>24900</v>
+      <c r="D57" s="1">
+        <f t="shared" si="0"/>
+        <v>0.9</v>
       </c>
       <c r="E57">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="3:5" x14ac:dyDescent="0.25">
+        <v>24900</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C58">
         <v>55</v>
       </c>
-      <c r="D58">
-        <v>24900</v>
+      <c r="D58" s="1">
+        <f t="shared" si="0"/>
+        <v>0.91666666666666663</v>
       </c>
       <c r="E58">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="3:5" x14ac:dyDescent="0.25">
+        <v>24900</v>
+      </c>
+      <c r="F58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C59">
         <v>56</v>
       </c>
-      <c r="D59">
-        <v>24900</v>
+      <c r="D59" s="1">
+        <f t="shared" si="0"/>
+        <v>0.93333333333333335</v>
       </c>
       <c r="E59">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="3:5" x14ac:dyDescent="0.25">
+        <v>24900</v>
+      </c>
+      <c r="F59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C60">
         <v>57</v>
       </c>
-      <c r="D60">
-        <v>24900</v>
+      <c r="D60" s="1">
+        <f t="shared" si="0"/>
+        <v>0.95</v>
       </c>
       <c r="E60">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="3:5" x14ac:dyDescent="0.25">
+        <v>24900</v>
+      </c>
+      <c r="F60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C61">
         <v>58</v>
       </c>
-      <c r="D61">
-        <v>24900</v>
+      <c r="D61" s="1">
+        <f t="shared" si="0"/>
+        <v>0.96666666666666667</v>
       </c>
       <c r="E61">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="3:5" x14ac:dyDescent="0.25">
+        <v>24900</v>
+      </c>
+      <c r="F61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C62">
         <v>59</v>
       </c>
-      <c r="D62">
-        <v>24900</v>
+      <c r="D62" s="1">
+        <f t="shared" si="0"/>
+        <v>0.98333333333333328</v>
       </c>
       <c r="E62">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="3:5" x14ac:dyDescent="0.25">
+        <v>24900</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C63">
         <v>60</v>
       </c>
-      <c r="D63">
-        <v>24900</v>
+      <c r="D63" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="E63">
+        <v>24900</v>
+      </c>
+      <c r="F63">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>